--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_103.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_103.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6187</v>
+        <v>1.7605</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>25.94</v>
       </c>
       <c r="K3" t="n">
-        <v>45.77</v>
+        <v>819.95</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
-        <v>750.6485</v>
+        <v>846.7430000000001</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.502</v>
+        <v>1.6488</v>
       </c>
       <c r="J4" t="n">
-        <v>9.970000000000001</v>
+        <v>17.24</v>
       </c>
       <c r="K4" t="n">
-        <v>268.96</v>
+        <v>510.23</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>727.0194</v>
+        <v>776.2129</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>6.9047</v>
+        <v>7.4205</v>
       </c>
       <c r="J5" t="n">
-        <v>26.99</v>
+        <v>26.47</v>
       </c>
       <c r="K5" t="n">
-        <v>3345.9</v>
+        <v>3525.91</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>8.15</v>
+        <v>8.01</v>
       </c>
       <c r="R5" t="n">
-        <v>2884.6638</v>
+        <v>3027.4827</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>8.3864</v>
+        <v>9.021800000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>26.37</v>
+        <v>26.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3970.35</v>
+        <v>4227.23</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>6.8</v>
+        <v>6.82</v>
       </c>
       <c r="R6" t="n">
-        <v>2408.7391</v>
+        <v>2579.3489</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8555</v>
+        <v>4.1598</v>
       </c>
       <c r="J7" t="n">
-        <v>31.84</v>
+        <v>31.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2203.95</v>
+        <v>2337.29</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>5.02</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>1776.1414</v>
+        <v>1892.3165</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>44.9043</v>
+        <v>48.4612</v>
       </c>
       <c r="J8" t="n">
-        <v>4.06</v>
+        <v>3.96</v>
       </c>
       <c r="K8" t="n">
-        <v>3269.95</v>
+        <v>3442.9</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>9.050000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="R8" t="n">
-        <v>3205.0988</v>
+        <v>3400.7762</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1001,16 +1001,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I9" t="n">
-        <v>10.4098</v>
+        <v>12.1579</v>
       </c>
       <c r="J9" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="K9" t="n">
-        <v>360.37</v>
+        <v>365.31</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="R9" t="n">
-        <v>284.6759</v>
+        <v>332.6835</v>
       </c>
     </row>
   </sheetData>
